--- a/Copy of RoxanneGeurin_Week2Homework (1)(AutoRecovered)-2.xlsx
+++ b/Copy of RoxanneGeurin_Week2Homework (1)(AutoRecovered)-2.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roxannegeurin/SavvyCoders/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CB2165C-BDA0-9847-86AE-AF574E805874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04A6D81-CF16-F742-A6DC-8D15B501E0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
     <sheet name="Credit Card Debt" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId3"/>
-    <sheet name="Balance" sheetId="10" r:id="rId4"/>
-    <sheet name="Expenses (2)" sheetId="5" r:id="rId5"/>
-    <sheet name=" " sheetId="4" r:id="rId6"/>
+    <sheet name="Balance" sheetId="10" r:id="rId3"/>
+    <sheet name="Expenses (2)" sheetId="5" r:id="rId4"/>
+    <sheet name=" " sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId7"/>
+    <pivotCache cacheId="24" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="174">
   <si>
     <t>Expenses</t>
   </si>
@@ -551,12 +550,6 @@
   </si>
   <si>
     <t>Sum of Tax Inclusive Amount</t>
-  </si>
-  <si>
-    <t>&lt;3/2/11</t>
-  </si>
-  <si>
-    <t>2011</t>
   </si>
   <si>
     <t>2012</t>
@@ -4573,117 +4566,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3ADB09D6-1E28-DF4A-A318-DF96D540F6F8}" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="43" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="10"/>
-    <field x="9"/>
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="6"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DF6AEF-5325-7E41-A088-B03BFDBDA33D}" name="PivotTable6" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42DF6AEF-5325-7E41-A088-B03BFDBDA33D}" name="PivotTable6" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5709,126 +5592,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3231610-303E-CA49-8306-37990C8B0436}">
-  <dimension ref="A3:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5">
-        <v>11468</v>
-      </c>
-      <c r="E5">
-        <v>11468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6">
-        <v>356959.48</v>
-      </c>
-      <c r="C6">
-        <v>-1650</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
-      </c>
-      <c r="E6">
-        <v>355307.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7">
-        <v>64894.25</v>
-      </c>
-      <c r="C7">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>64965.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8">
-        <v>433321.73</v>
-      </c>
-      <c r="C8">
-        <v>-1580</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>431740.73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724EDAA6-6064-B044-9DC9-51548A4293B2}">
   <dimension ref="A3:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -5867,17 +5634,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7">
         <v>30270.25</v>
@@ -5894,7 +5661,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8">
         <v>34624</v>
@@ -5936,7 +5703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C08297-10BD-6A4B-A88E-0DB861FBDC6A}">
   <dimension ref="A1:I210"/>
   <sheetViews>
@@ -12026,7 +11793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FF0679-883D-6A42-BAB4-7F063C60DA26}">
   <dimension ref="A1"/>
   <sheetViews>
